--- a/raw_data/Forex Rates/USD-EUR.xlsx
+++ b/raw_data/Forex Rates/USD-EUR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsb13\Downloads\Forex Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsb13\Desktop\FIN377(2nd time....)\TheReddestBulls\raw_data\Forex Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B13C3AF-93A0-4A3C-9425-91D424FF33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2337C0AF-7228-415C-8E1A-3714A6D82949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,13 +363,12 @@
   <dimension ref="B2:C282"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C282"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -385,7 +384,6 @@
         <v>45765</v>
       </c>
       <c r="C3">
-        <f>1/1.1395</f>
         <v>0.87757788503729706</v>
       </c>
     </row>
@@ -394,8 +392,7 @@
         <v>45747</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">1/1.1395</f>
-        <v>0.87757788503729706</v>
+        <v>0.92455621301775159</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -403,8 +400,7 @@
         <v>45716</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.96385542168674687</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -412,8 +408,7 @@
         <v>45688</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.96506465933217522</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -421,8 +416,7 @@
         <v>45657</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.96581031485416258</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -430,8 +424,7 @@
         <v>45625</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.94544766947149472</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -439,8 +432,7 @@
         <v>45596</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.91877986034546122</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -448,8 +440,7 @@
         <v>45565</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.89806915132465204</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -457,8 +448,7 @@
         <v>45534</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90514120202751625</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -466,8 +456,7 @@
         <v>45504</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92370219841123224</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -475,8 +464,7 @@
         <v>45471</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.93344534677494639</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -484,8 +472,7 @@
         <v>45443</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92182890855457233</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -493,8 +480,7 @@
         <v>45412</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.93755859741233827</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -502,8 +488,7 @@
         <v>45380</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92678405931417984</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -511,8 +496,7 @@
         <v>45351</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92549745488199908</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -520,8 +504,7 @@
         <v>45322</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92438528378628204</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -529,8 +512,7 @@
         <v>45289</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90587915572062683</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -538,8 +520,7 @@
         <v>45260</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.91844232182218954</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -547,8 +528,7 @@
         <v>45230</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.94562647754137108</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -556,8 +536,7 @@
         <v>45198</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.94580535325829951</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -565,8 +544,7 @@
         <v>45169</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92225398874850129</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -574,8 +552,7 @@
         <v>45138</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90933891061198513</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -583,8 +560,7 @@
         <v>45107</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.91667430561921348</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -592,8 +568,7 @@
         <v>45077</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.93554121059032658</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -601,8 +576,7 @@
         <v>45044</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90752336872674466</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -610,8 +584,7 @@
         <v>45016</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92259433527078138</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -619,8 +592,7 @@
         <v>44985</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.94553706505294999</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -628,8 +600,7 @@
         <v>44957</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.92055601583356339</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -637,8 +608,7 @@
         <v>44925</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.93414292386735165</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -646,8 +616,7 @@
         <v>44895</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.96098404766480883</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -655,8 +624,7 @@
         <v>44865</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>1.0119409026512851</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -664,8 +632,7 @@
         <v>44834</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>1.0201999591920017</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -673,8 +640,7 @@
         <v>44804</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.99462900338173854</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -682,8 +648,7 @@
         <v>44771</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.97847358121330719</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -691,8 +656,7 @@
         <v>44742</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.95383441434566962</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -700,8 +664,7 @@
         <v>44712</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.93161915408980811</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -709,8 +672,7 @@
         <v>44680</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.94831673779042203</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -718,8 +680,7 @@
         <v>44651</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90358724134815216</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -727,8 +688,7 @@
         <v>44620</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.89134503966485434</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -736,8 +696,7 @@
         <v>44592</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.89007565643079667</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -745,8 +704,7 @@
         <v>44561</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.87950747581354438</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -754,8 +712,7 @@
         <v>44530</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.88198976891868064</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -763,8 +720,7 @@
         <v>44498</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.86520159197092927</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -772,8 +728,7 @@
         <v>44469</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.86355785837651133</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -781,8 +736,7 @@
         <v>44439</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.84681175374714202</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -790,8 +744,7 @@
         <v>44407</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.84245998315080028</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -799,8 +752,7 @@
         <v>44377</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.84331253162421993</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -808,8 +760,7 @@
         <v>44347</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.8178621084485157</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -817,8 +768,7 @@
         <v>44316</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.83194675540765395</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -826,8 +776,7 @@
         <v>44286</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.85251491901108267</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -835,8 +784,7 @@
         <v>44253</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.82815734989648027</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -844,8 +792,7 @@
         <v>44225</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.82399472643375082</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -853,8 +800,7 @@
         <v>44196</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.81859855926653569</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -862,8 +808,7 @@
         <v>44165</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.83843380565104375</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -871,8 +816,7 @@
         <v>44134</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.85859019489997424</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -880,8 +824,7 @@
         <v>44104</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.85316952478457475</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -889,8 +832,7 @@
         <v>44074</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.83780160857908847</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -898,8 +840,7 @@
         <v>44043</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.84904058413992189</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -907,8 +848,7 @@
         <v>44012</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.8901548869503294</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -916,8 +856,7 @@
         <v>43980</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90081974596883152</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -925,8 +864,7 @@
         <v>43951</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.91282519397535378</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -934,8 +872,7 @@
         <v>43921</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90653612546459983</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -943,8 +880,7 @@
         <v>43889</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.90694721567204784</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -952,8 +888,7 @@
         <v>43861</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.9014693951140359</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -961,8 +896,7 @@
         <v>43830</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
-        <v>0.87757788503729706</v>
+        <v>0.89182199233033088</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -970,8 +904,7 @@
         <v>43798</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="1">1/1.1395</f>
-        <v>0.87757788503729706</v>
+        <v>0.90760573606825201</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -979,8 +912,7 @@
         <v>43769</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89670014347202298</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -988,8 +920,7 @@
         <v>43738</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.91751536838242032</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -997,8 +928,7 @@
         <v>43707</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.91058095064651245</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -1006,8 +936,7 @@
         <v>43677</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.90285301552907193</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -1015,8 +944,7 @@
         <v>43644</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.8792754770069463</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -1024,8 +952,7 @@
         <v>43616</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89533530307100007</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -1033,8 +960,7 @@
         <v>43585</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89166295140436924</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -1042,8 +968,7 @@
         <v>43553</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89142449634515963</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -1051,8 +976,7 @@
         <v>43524</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.87943012927622899</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -1060,8 +984,7 @@
         <v>43496</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.87351502445842066</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -1069,8 +992,7 @@
         <v>43465</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.87206767245138217</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -1078,8 +1000,7 @@
         <v>43434</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.8836264027569144</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -1087,8 +1008,7 @@
         <v>43404</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.88401697312588401</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -1096,8 +1016,7 @@
         <v>43371</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.86177180282661148</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -1105,8 +1024,7 @@
         <v>43343</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.86192035855886928</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -1114,8 +1032,7 @@
         <v>43312</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.85535882302625954</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -1123,8 +1040,7 @@
         <v>43280</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.85587127695994514</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -1132,8 +1048,7 @@
         <v>43251</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.85521252031129735</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -1141,8 +1056,7 @@
         <v>43220</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.82795164762377882</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
@@ -1150,8 +1064,7 @@
         <v>43189</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.81142486205777353</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
@@ -1159,8 +1072,7 @@
         <v>43159</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.82007544694111856</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
@@ -1168,8 +1080,7 @@
         <v>43131</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.80554212985339124</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
@@ -1177,8 +1088,7 @@
         <v>43098</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.83298625572678053</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -1186,8 +1096,7 @@
         <v>43069</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.84005376344086025</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
@@ -1195,8 +1104,7 @@
         <v>43039</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.85866391894212601</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -1204,8 +1112,7 @@
         <v>43007</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.84645336041984087</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -1213,8 +1120,7 @@
         <v>42978</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.83963056255247692</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -1222,8 +1128,7 @@
         <v>42947</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.84445195068400614</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -1231,8 +1136,7 @@
         <v>42916</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.87519691930684396</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -1240,8 +1144,7 @@
         <v>42886</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.88936321593738876</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -1249,8 +1152,7 @@
         <v>42853</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.9178522257916476</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
@@ -1258,8 +1160,7 @@
         <v>42825</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.93879083740142699</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
@@ -1267,8 +1168,7 @@
         <v>42794</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.94553706505294999</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
@@ -1276,8 +1176,7 @@
         <v>42766</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.92609742544915719</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
@@ -1285,8 +1184,7 @@
         <v>42734</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.95084149472282964</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
@@ -1294,8 +1192,7 @@
         <v>42704</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.94437623949381433</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
@@ -1303,8 +1200,7 @@
         <v>42674</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.91066387396411974</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
@@ -1312,8 +1208,7 @@
         <v>42643</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89007565643079667</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -1321,8 +1216,7 @@
         <v>42613</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89621796020792266</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -1330,8 +1224,7 @@
         <v>42580</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89493466976910685</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -1339,8 +1232,7 @@
         <v>42551</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.90041419052764271</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -1348,8 +1240,7 @@
         <v>42521</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89831117499101687</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -1357,8 +1248,7 @@
         <v>42489</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.87328617587983581</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -1366,8 +1256,7 @@
         <v>42460</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.87873462214411258</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -1375,8 +1264,7 @@
         <v>42429</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.9197093718384991</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
@@ -1384,8 +1272,7 @@
         <v>42398</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.92327578247622566</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -1393,8 +1280,7 @@
         <v>42369</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.92064076597311728</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -1402,8 +1288,7 @@
         <v>42338</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.94652153336488409</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -1411,8 +1296,7 @@
         <v>42307</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.90859531164819185</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
@@ -1420,8 +1304,7 @@
         <v>42277</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89469446184128132</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
@@ -1429,8 +1312,7 @@
         <v>42247</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89198109000089199</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
@@ -1438,8 +1320,7 @@
         <v>42216</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.91041514930808443</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
@@ -1447,8 +1328,7 @@
         <v>42185</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89710235937920513</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
@@ -1456,8 +1336,7 @@
         <v>42153</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.91024940833788459</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
@@ -1465,8 +1344,7 @@
         <v>42124</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.89094796863863146</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
@@ -1474,8 +1352,7 @@
         <v>42094</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.9318796011555307</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -1483,8 +1360,7 @@
         <v>42062</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.8931761343336907</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
@@ -1492,8 +1368,7 @@
         <v>42034</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.88566114604552304</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
@@ -1501,8 +1376,7 @@
         <v>42004</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.82658290626549846</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
@@ -1510,8 +1384,7 @@
         <v>41971</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.8030838419530999</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
@@ -1519,8 +1392,7 @@
         <v>41943</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.79840319361277445</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
@@ -1528,8 +1400,7 @@
         <v>41912</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.79170295305201499</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
@@ -1537,8 +1408,7 @@
         <v>41880</v>
       </c>
       <c r="C131">
-        <f t="shared" si="1"/>
-        <v>0.87757788503729706</v>
+        <v>0.76149862930246726</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
@@ -1546,8 +1416,7 @@
         <v>41851</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C195" si="2">1/1.1395</f>
-        <v>0.87757788503729706</v>
+        <v>0.74682598954443613</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
@@ -1555,8 +1424,7 @@
         <v>41820</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73035349108968739</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
@@ -1564,8 +1432,7 @@
         <v>41789</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73340667400073345</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
@@ -1573,8 +1440,7 @@
         <v>41759</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.72113651114155908</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
@@ -1582,8 +1448,7 @@
         <v>41729</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.7262691553489723</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
@@ -1591,8 +1456,7 @@
         <v>41698</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.72453267642370667</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
@@ -1600,8 +1464,7 @@
         <v>41670</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.7415097137772505</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
@@ -1609,8 +1472,7 @@
         <v>41639</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.72764316379247618</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
@@ -1618,8 +1480,7 @@
         <v>41607</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73578103156500629</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
@@ -1627,8 +1488,7 @@
         <v>41578</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73616018845700826</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
@@ -1636,8 +1496,7 @@
         <v>41547</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.7392622163081245</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
@@ -1645,8 +1504,7 @@
         <v>41516</v>
       </c>
       <c r="C143">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.75631523218877628</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
@@ -1654,8 +1512,7 @@
         <v>41486</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.7517666516313336</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
@@ -1663,8 +1520,7 @@
         <v>41453</v>
       </c>
       <c r="C145">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.76863950807071491</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
@@ -1672,8 +1528,7 @@
         <v>41425</v>
       </c>
       <c r="C146">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.76928994538041384</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
@@ -1681,8 +1536,7 @@
         <v>41394</v>
       </c>
       <c r="C147">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.75941676792223578</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
@@ -1690,8 +1544,7 @@
         <v>41362</v>
       </c>
       <c r="C148">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.78009205086200173</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
@@ -1699,8 +1552,7 @@
         <v>41333</v>
       </c>
       <c r="C149">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.76587271195527296</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
@@ -1708,8 +1560,7 @@
         <v>41305</v>
       </c>
       <c r="C150">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73643125414242572</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
@@ -1717,8 +1568,7 @@
         <v>41274</v>
       </c>
       <c r="C151">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.75797771545516568</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
@@ -1726,8 +1576,7 @@
         <v>41243</v>
       </c>
       <c r="C152">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.7700600646850454</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
@@ -1735,8 +1584,7 @@
         <v>41213</v>
       </c>
       <c r="C153">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.77160493827160492</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
@@ -1744,8 +1592,7 @@
         <v>41180</v>
       </c>
       <c r="C154">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.77760497667185069</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
@@ -1753,8 +1600,7 @@
         <v>41152</v>
       </c>
       <c r="C155">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.79497575323952618</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
@@ -1762,8 +1608,7 @@
         <v>41121</v>
       </c>
       <c r="C156">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.81274382314694416</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
@@ -1771,8 +1616,7 @@
         <v>41089</v>
       </c>
       <c r="C157">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.78945290913397015</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
@@ -1780,8 +1624,7 @@
         <v>41060</v>
       </c>
       <c r="C158">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.80873433077234136</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
@@ -1789,8 +1632,7 @@
         <v>41029</v>
       </c>
       <c r="C159">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.75534405921897418</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
@@ -1798,8 +1640,7 @@
         <v>40998</v>
       </c>
       <c r="C160">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.74945664393314848</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
@@ -1807,8 +1648,7 @@
         <v>40968</v>
       </c>
       <c r="C161">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.75046904315196994</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
@@ -1816,8 +1656,7 @@
         <v>40939</v>
       </c>
       <c r="C162">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.76429226536227457</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
@@ -1825,8 +1664,7 @@
         <v>40907</v>
       </c>
       <c r="C163">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.77154540544711059</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
@@ -1834,8 +1672,7 @@
         <v>40877</v>
       </c>
       <c r="C164">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.74371560315335417</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
@@ -1843,8 +1680,7 @@
         <v>40847</v>
       </c>
       <c r="C165">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.72160484918458656</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
@@ -1852,8 +1688,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.74699335175916937</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
@@ -1861,8 +1696,7 @@
         <v>40786</v>
       </c>
       <c r="C167">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.69594265432528357</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
@@ -1870,8 +1704,7 @@
         <v>40753</v>
       </c>
       <c r="C168">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.69454090845950833</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
@@ -1879,8 +1712,7 @@
         <v>40724</v>
       </c>
       <c r="C169">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.68956006068128539</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
@@ -1888,8 +1720,7 @@
         <v>40694</v>
       </c>
       <c r="C170">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.69463739927757706</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
@@ -1897,8 +1728,7 @@
         <v>40662</v>
       </c>
       <c r="C171">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.67535625042209768</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
@@ -1906,8 +1736,7 @@
         <v>40633</v>
       </c>
       <c r="C172">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.70631445119367142</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -1915,8 +1744,7 @@
         <v>40602</v>
       </c>
       <c r="C173">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.72432275822106329</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
@@ -1924,8 +1752,7 @@
         <v>40574</v>
       </c>
       <c r="C174">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73024682342631808</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
@@ -1933,8 +1760,7 @@
         <v>40543</v>
       </c>
       <c r="C175">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.74716078900179317</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
@@ -1942,8 +1768,7 @@
         <v>40512</v>
       </c>
       <c r="C176">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.7702380035430948</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
@@ -1951,8 +1776,7 @@
         <v>40480</v>
       </c>
       <c r="C177">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.71700007170000712</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
@@ -1960,8 +1784,7 @@
         <v>40451</v>
       </c>
       <c r="C178">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73346046648085672</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
@@ -1969,8 +1792,7 @@
         <v>40421</v>
       </c>
       <c r="C179">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.78864353312302837</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
@@ -1978,8 +1800,7 @@
         <v>40389</v>
       </c>
       <c r="C180">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.76616610481152314</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
@@ -1987,8 +1808,7 @@
         <v>40359</v>
       </c>
       <c r="C181">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.81712698153293017</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
@@ -1996,8 +1816,7 @@
         <v>40329</v>
       </c>
       <c r="C182">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.81261173411344068</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
@@ -2005,8 +1824,7 @@
         <v>40298</v>
       </c>
       <c r="C183">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.75221904618624946</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -2014,8 +1832,7 @@
         <v>40268</v>
       </c>
       <c r="C184">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.74019245003700962</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
@@ -2023,8 +1840,7 @@
         <v>40235</v>
       </c>
       <c r="C185">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.73362189127723576</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
@@ -2032,8 +1848,7 @@
         <v>40207</v>
       </c>
       <c r="C186">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.72134458630887965</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
@@ -2041,8 +1856,7 @@
         <v>40178</v>
       </c>
       <c r="C187">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.69827526010753438</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
@@ -2050,8 +1864,7 @@
         <v>40147</v>
       </c>
       <c r="C188">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.66644451849383546</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
@@ -2059,8 +1872,7 @@
         <v>40116</v>
       </c>
       <c r="C189">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.6793939805693322</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
@@ -2068,8 +1880,7 @@
         <v>40086</v>
       </c>
       <c r="C190">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.68306010928961747</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
@@ -2077,8 +1888,7 @@
         <v>40056</v>
       </c>
       <c r="C191">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.69764197014092366</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
@@ -2086,8 +1896,7 @@
         <v>40025</v>
       </c>
       <c r="C192">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.70140983376586941</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
@@ -2095,8 +1904,7 @@
         <v>39994</v>
       </c>
       <c r="C193">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.71260600014252118</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
@@ -2104,8 +1912,7 @@
         <v>39962</v>
       </c>
       <c r="C194">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.70631445119367142</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
@@ -2113,8 +1920,7 @@
         <v>39933</v>
       </c>
       <c r="C195">
-        <f t="shared" si="2"/>
-        <v>0.87757788503729706</v>
+        <v>0.75585789871504161</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
@@ -2122,8 +1928,7 @@
         <v>39903</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C259" si="3">1/1.1395</f>
-        <v>0.87757788503729706</v>
+        <v>0.75471698113207553</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
@@ -2131,8 +1936,7 @@
         <v>39871</v>
       </c>
       <c r="C197">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78932828163233093</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
@@ -2140,8 +1944,7 @@
         <v>39843</v>
       </c>
       <c r="C198">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78045734800593136</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
@@ -2149,8 +1952,7 @@
         <v>39813</v>
       </c>
       <c r="C199">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.71576837735308851</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
@@ -2158,8 +1960,7 @@
         <v>39780</v>
       </c>
       <c r="C200">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78795997163344111</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
@@ -2167,8 +1968,7 @@
         <v>39752</v>
       </c>
       <c r="C201">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78579286500078582</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
@@ -2176,8 +1976,7 @@
         <v>39721</v>
       </c>
       <c r="C202">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.70962248084019297</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
@@ -2185,8 +1984,7 @@
         <v>39689</v>
       </c>
       <c r="C203">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.68152388741225378</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
@@ -2194,8 +1992,7 @@
         <v>39660</v>
       </c>
       <c r="C204">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.6409023905659168</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
@@ -2203,8 +2000,7 @@
         <v>39629</v>
       </c>
       <c r="C205">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.634719136781974</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
@@ -2212,8 +2008,7 @@
         <v>39598</v>
       </c>
       <c r="C206">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.64292143500064292</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
@@ -2221,8 +2016,7 @@
         <v>39568</v>
       </c>
       <c r="C207">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.64012290359749069</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
@@ -2230,8 +2024,7 @@
         <v>39538</v>
       </c>
       <c r="C208">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.63339244996199651</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
@@ -2239,8 +2032,7 @@
         <v>39507</v>
       </c>
       <c r="C209">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.65880492786086042</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
@@ -2248,8 +2040,7 @@
         <v>39478</v>
       </c>
       <c r="C210">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.67290222730637239</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
@@ -2257,8 +2048,7 @@
         <v>39447</v>
       </c>
       <c r="C211">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.68544794022893962</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
@@ -2266,8 +2056,7 @@
         <v>39416</v>
       </c>
       <c r="C212">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.68338686530444881</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
@@ -2275,8 +2064,7 @@
         <v>39386</v>
       </c>
       <c r="C213">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.69027403879340088</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
@@ -2284,8 +2072,7 @@
         <v>39353</v>
       </c>
       <c r="C214">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.70091820284572781</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
@@ -2293,8 +2080,7 @@
         <v>39325</v>
       </c>
       <c r="C215">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.73367571533382248</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
@@ -2302,8 +2088,7 @@
         <v>39294</v>
       </c>
       <c r="C216">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.73078047354574682</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
@@ -2311,8 +2096,7 @@
         <v>39262</v>
       </c>
       <c r="C217">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.73849789528099841</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
@@ -2320,8 +2104,7 @@
         <v>39233</v>
       </c>
       <c r="C218">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.74332862558537127</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
@@ -2329,8 +2112,7 @@
         <v>39202</v>
       </c>
       <c r="C219">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.73270808909730367</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
@@ -2338,8 +2120,7 @@
         <v>39171</v>
       </c>
       <c r="C220">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.74883929908641611</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
@@ -2347,8 +2128,7 @@
         <v>39141</v>
       </c>
       <c r="C221">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.75591503515004921</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
@@ -2356,8 +2136,7 @@
         <v>39113</v>
       </c>
       <c r="C222">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.76734192756292208</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
@@ -2365,8 +2144,7 @@
         <v>39080</v>
       </c>
       <c r="C223">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.75774797302417207</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
@@ -2374,8 +2152,7 @@
         <v>39051</v>
       </c>
       <c r="C224">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.75517293460202384</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
@@ -2383,8 +2160,7 @@
         <v>39021</v>
       </c>
       <c r="C225">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78357624196834352</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
@@ -2392,8 +2168,7 @@
         <v>38989</v>
       </c>
       <c r="C226">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78901688496133815</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
@@ -2401,8 +2176,7 @@
         <v>38960</v>
       </c>
       <c r="C227">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78045734800593136</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
@@ -2410,8 +2184,7 @@
         <v>38929</v>
       </c>
       <c r="C228">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78326936633508271</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
@@ -2419,8 +2192,7 @@
         <v>38898</v>
       </c>
       <c r="C229">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.781799702916113</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
@@ -2428,8 +2200,7 @@
         <v>38868</v>
       </c>
       <c r="C230">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78064012490242007</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
@@ -2437,8 +2208,7 @@
         <v>38835</v>
       </c>
       <c r="C231">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.79145231499802138</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
@@ -2446,8 +2216,7 @@
         <v>38807</v>
       </c>
       <c r="C232">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.825218682950982</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
@@ -2455,8 +2224,7 @@
         <v>38776</v>
       </c>
       <c r="C233">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.83885580068786181</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
@@ -2464,8 +2232,7 @@
         <v>38748</v>
       </c>
       <c r="C234">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.82263902599539318</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
@@ -2473,8 +2240,7 @@
         <v>38716</v>
       </c>
       <c r="C235">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.84395307620896276</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
@@ -2482,8 +2248,7 @@
         <v>38686</v>
       </c>
       <c r="C236">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.84832032575500504</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
@@ -2491,8 +2256,7 @@
         <v>38656</v>
       </c>
       <c r="C237">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.83388925950633752</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
@@ -2500,8 +2264,7 @@
         <v>38625</v>
       </c>
       <c r="C238">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.83153168135705979</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
@@ -2509,8 +2272,7 @@
         <v>38595</v>
       </c>
       <c r="C239">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.80997894054754582</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
@@ -2518,8 +2280,7 @@
         <v>38562</v>
       </c>
       <c r="C240">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.82487833044625924</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
@@ -2527,8 +2288,7 @@
         <v>38533</v>
       </c>
       <c r="C241">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.82590023125206469</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
@@ -2536,8 +2296,7 @@
         <v>38503</v>
       </c>
       <c r="C242">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.81274382314694416</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
@@ -2545,8 +2304,7 @@
         <v>38471</v>
       </c>
       <c r="C243">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.77681970014759572</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
@@ -2554,8 +2312,7 @@
         <v>38442</v>
       </c>
       <c r="C244">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.77136686207960503</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
@@ -2563,8 +2320,7 @@
         <v>38411</v>
       </c>
       <c r="C245">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.75597218022376778</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
@@ -2572,8 +2328,7 @@
         <v>38383</v>
       </c>
       <c r="C246">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.76692997929289053</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
@@ -2581,8 +2336,7 @@
         <v>38352</v>
       </c>
       <c r="C247">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.73778958241109638</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
@@ -2590,8 +2344,7 @@
         <v>38321</v>
       </c>
       <c r="C248">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.75306875517734762</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
@@ -2599,8 +2352,7 @@
         <v>38289</v>
       </c>
       <c r="C249">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.78137208938896696</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
@@ -2608,8 +2360,7 @@
         <v>38260</v>
       </c>
       <c r="C250">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.80411707944676747</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
@@ -2617,8 +2368,7 @@
         <v>38230</v>
       </c>
       <c r="C251">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.82081589099564967</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
@@ -2626,8 +2376,7 @@
         <v>38198</v>
       </c>
       <c r="C252">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.8320159747067144</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
@@ -2635,8 +2384,7 @@
         <v>38168</v>
       </c>
       <c r="C253">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.81967213114754101</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
@@ -2644,8 +2392,7 @@
         <v>38138</v>
       </c>
       <c r="C254">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.82047915982934028</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
@@ -2653,8 +2400,7 @@
         <v>38107</v>
       </c>
       <c r="C255">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.8347245409015025</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
@@ -2662,8 +2408,7 @@
         <v>38077</v>
       </c>
       <c r="C256">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.81195193244559916</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
@@ -2671,8 +2416,7 @@
         <v>38044</v>
       </c>
       <c r="C257">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.80044825102057149</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
@@ -2680,8 +2424,7 @@
         <v>38016</v>
       </c>
       <c r="C258">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.8014104824491104</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
@@ -2689,8 +2432,7 @@
         <v>37986</v>
       </c>
       <c r="C259">
-        <f t="shared" si="3"/>
-        <v>0.87757788503729706</v>
+        <v>0.79396585946804288</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
@@ -2698,8 +2440,7 @@
         <v>37953</v>
       </c>
       <c r="C260">
-        <f t="shared" ref="C260:C282" si="4">1/1.1395</f>
-        <v>0.87757788503729706</v>
+        <v>0.8336112037345782</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
@@ -2707,8 +2448,7 @@
         <v>37925</v>
       </c>
       <c r="C261">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.86258949365996718</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
@@ -2716,8 +2456,7 @@
         <v>37894</v>
       </c>
       <c r="C262">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.85785365016728155</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
@@ -2725,8 +2464,7 @@
         <v>37862</v>
       </c>
       <c r="C263">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.91041514930808443</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
@@ -2734,8 +2472,7 @@
         <v>37833</v>
       </c>
       <c r="C264">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.8903133903133903</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
@@ -2743,8 +2480,7 @@
         <v>37802</v>
       </c>
       <c r="C265">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.86865879082696318</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
@@ -2752,8 +2488,7 @@
         <v>37771</v>
       </c>
       <c r="C266">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.8486082824168365</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
@@ -2761,8 +2496,7 @@
         <v>37741</v>
       </c>
       <c r="C267">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.89413447782546485</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
@@ -2770,8 +2504,7 @@
         <v>37711</v>
       </c>
       <c r="C268">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.91617040769583147</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
@@ -2779,8 +2512,7 @@
         <v>37680</v>
       </c>
       <c r="C269">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.92532617747756085</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
@@ -2788,8 +2520,7 @@
         <v>37652</v>
       </c>
       <c r="C270">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.92867756315007433</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
@@ -2797,8 +2528,7 @@
         <v>37621</v>
       </c>
       <c r="C271">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>0.95310712924132679</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
@@ -2806,8 +2536,7 @@
         <v>37589</v>
       </c>
       <c r="C272">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.0057326762546515</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
@@ -2815,8 +2544,7 @@
         <v>37560</v>
       </c>
       <c r="C273">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.0097950116126426</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
@@ -2824,8 +2552,7 @@
         <v>37529</v>
       </c>
       <c r="C274">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.0135819987837016</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
@@ -2833,8 +2560,7 @@
         <v>37498</v>
       </c>
       <c r="C275">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.0180189351521938</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
@@ -2842,8 +2568,7 @@
         <v>37468</v>
       </c>
       <c r="C276">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.0229132569558101</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
@@ -2851,8 +2576,7 @@
         <v>37435</v>
       </c>
       <c r="C277">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.0085728693898133</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
@@ -2860,8 +2584,7 @@
         <v>37407</v>
       </c>
       <c r="C278">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.070434596446157</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
@@ -2869,8 +2592,7 @@
         <v>37376</v>
       </c>
       <c r="C279">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.1104941699056081</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
@@ -2878,8 +2600,7 @@
         <v>37344</v>
       </c>
       <c r="C280">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.1471836641046231</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
@@ -2887,8 +2608,7 @@
         <v>37315</v>
       </c>
       <c r="C281">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.1502185415228894</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
@@ -2896,8 +2616,7 @@
         <v>37287</v>
       </c>
       <c r="C282">
-        <f t="shared" si="4"/>
-        <v>0.87757788503729706</v>
+        <v>1.1636025133814287</v>
       </c>
     </row>
   </sheetData>
